--- a/MapGenerator/Großflächen.xlsx
+++ b/MapGenerator/Großflächen.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\maps\MapGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB763294-35CD-4892-BB68-20341CC03C40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA257C77-9422-47F0-884A-5F80CFBF06B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AFB3E408-383F-438A-91D5-4116BE5462C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="genehmigt" sheetId="1" r:id="rId1"/>
+    <sheet name="abgelehnt" sheetId="2" r:id="rId2"/>
+    <sheet name="offen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -895,7 +897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D6:D7"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,29 +1172,1372 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D75" s="9"/>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D76" s="9"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D77" s="9"/>
+      <c r="K77" s="8"/>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="9"/>
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="9"/>
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="9"/>
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D81" s="9"/>
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="8"/>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="8"/>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="8"/>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="8"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="8"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="8"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="8"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="8"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="8"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="8"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K112" s="8"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="8"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="8"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="8"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="8"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="8"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="8"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="8"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="8"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="8"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="8"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="8"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="8"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="8"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K127" s="8"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="8"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="8"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K130" s="8"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="8"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="8"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K133" s="8"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="8"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K135" s="8"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="8"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K137" s="8"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K138" s="8"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K139" s="8"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K140" s="8"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="8"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="8"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="8"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K144" s="8"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K145" s="8"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K146" s="8"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K147" s="8"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K148" s="8"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K149" s="8"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K150" s="8"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K151" s="8"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K152" s="8"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K153" s="8"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K154" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5DA9EE-A5AF-4E5C-9B3A-B8109609A6EC}">
+  <dimension ref="A1:K154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A855" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:I891"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="18" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D75" s="9"/>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D76" s="9"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D77" s="9"/>
+      <c r="K77" s="8"/>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="9"/>
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="9"/>
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="9"/>
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D81" s="9"/>
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="8"/>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="8"/>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="8"/>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="8"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="8"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="8"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="8"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="8"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="8"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="8"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K112" s="8"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="8"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="8"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="8"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="8"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="8"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="8"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="8"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="8"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="8"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="8"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="8"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="8"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="8"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K127" s="8"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="8"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="8"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K130" s="8"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="8"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="8"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K133" s="8"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="8"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K135" s="8"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="8"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K137" s="8"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K138" s="8"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K139" s="8"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K140" s="8"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="8"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="8"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="8"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K144" s="8"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K145" s="8"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K146" s="8"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K147" s="8"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K148" s="8"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K149" s="8"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K150" s="8"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K151" s="8"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K152" s="8"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K153" s="8"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K154" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB5FC9B-BB37-4006-82ED-07F5319461C3}">
+  <dimension ref="A1:K154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="18" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1200,25 +2545,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
         <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1226,25 +2571,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
         <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1252,25 +2597,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
         <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1278,25 +2623,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
         <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1307,10 +2652,10 @@
         <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
         <v>159</v>
@@ -1333,10 +2678,10 @@
         <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>159</v>
@@ -1359,10 +2704,10 @@
         <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
         <v>159</v>
@@ -1385,10 +2730,10 @@
         <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
         <v>159</v>
@@ -1411,10 +2756,10 @@
         <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
         <v>159</v>
@@ -1437,10 +2782,10 @@
         <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
@@ -1463,10 +2808,10 @@
         <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
         <v>159</v>
@@ -1489,10 +2834,10 @@
         <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
         <v>159</v>
@@ -1515,10 +2860,10 @@
         <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>159</v>
@@ -1541,10 +2886,10 @@
         <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>159</v>
@@ -1567,10 +2912,10 @@
         <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
         <v>159</v>
@@ -1593,10 +2938,10 @@
         <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
         <v>159</v>
@@ -1619,10 +2964,10 @@
         <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
         <v>159</v>
@@ -1645,10 +2990,10 @@
         <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
         <v>159</v>
@@ -1671,10 +3016,10 @@
         <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
         <v>159</v>
@@ -1697,10 +3042,10 @@
         <v>84</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
         <v>159</v>
@@ -1723,10 +3068,10 @@
         <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
         <v>159</v>
@@ -1749,10 +3094,10 @@
         <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s">
         <v>159</v>
@@ -1775,10 +3120,10 @@
         <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
         <v>159</v>
@@ -1801,10 +3146,10 @@
         <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
         <v>159</v>
@@ -1827,10 +3172,10 @@
         <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
         <v>159</v>
@@ -1853,10 +3198,10 @@
         <v>84</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
         <v>159</v>
@@ -1879,10 +3224,10 @@
         <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1905,10 +3250,10 @@
         <v>84</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
         <v>159</v>
@@ -1931,10 +3276,10 @@
         <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
         <v>159</v>
@@ -1957,10 +3302,10 @@
         <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
         <v>159</v>
@@ -1983,10 +3328,10 @@
         <v>84</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
         <v>159</v>
@@ -2009,10 +3354,10 @@
         <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
         <v>159</v>
@@ -2035,10 +3380,10 @@
         <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
         <v>159</v>
@@ -2061,10 +3406,10 @@
         <v>84</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
         <v>159</v>
@@ -2087,10 +3432,10 @@
         <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
         <v>159</v>
@@ -2113,10 +3458,10 @@
         <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
         <v>159</v>
@@ -2139,10 +3484,10 @@
         <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
         <v>159</v>
@@ -2165,10 +3510,10 @@
         <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
         <v>159</v>
@@ -2191,10 +3536,10 @@
         <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
         <v>159</v>
@@ -2217,10 +3562,10 @@
         <v>84</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
         <v>159</v>
@@ -2243,10 +3588,10 @@
         <v>84</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
         <v>159</v>
@@ -2269,10 +3614,10 @@
         <v>84</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
         <v>159</v>
@@ -2295,10 +3640,10 @@
         <v>84</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
         <v>159</v>
@@ -2321,10 +3666,10 @@
         <v>84</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s">
         <v>159</v>
@@ -2347,10 +3692,10 @@
         <v>84</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
         <v>159</v>
@@ -2373,10 +3718,10 @@
         <v>84</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E57" t="s">
         <v>159</v>
@@ -2399,10 +3744,10 @@
         <v>84</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E58" t="s">
         <v>159</v>
@@ -2425,10 +3770,10 @@
         <v>84</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
         <v>159</v>
@@ -2451,10 +3796,10 @@
         <v>84</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
         <v>159</v>
@@ -2477,10 +3822,10 @@
         <v>84</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
         <v>159</v>
@@ -2503,10 +3848,10 @@
         <v>84</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
         <v>159</v>
@@ -2529,10 +3874,10 @@
         <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
         <v>159</v>
@@ -2555,10 +3900,10 @@
         <v>84</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
         <v>159</v>
@@ -2581,10 +3926,10 @@
         <v>84</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
         <v>159</v>
@@ -2607,10 +3952,10 @@
         <v>84</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
         <v>159</v>
@@ -2633,10 +3978,10 @@
         <v>84</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
         <v>159</v>
@@ -2651,420 +3996,70 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" t="s">
-        <v>159</v>
-      </c>
-      <c r="F68" t="s">
-        <v>160</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69" t="s">
-        <v>160</v>
-      </c>
-      <c r="G69" t="s">
-        <v>85</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" t="s">
-        <v>159</v>
-      </c>
-      <c r="F70" t="s">
-        <v>160</v>
-      </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" t="s">
-        <v>160</v>
-      </c>
-      <c r="G71" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" t="s">
-        <v>159</v>
-      </c>
-      <c r="F72" t="s">
-        <v>160</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" t="s">
-        <v>159</v>
-      </c>
-      <c r="F73" t="s">
-        <v>160</v>
-      </c>
-      <c r="G73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" t="s">
-        <v>159</v>
-      </c>
-      <c r="F74" t="s">
-        <v>160</v>
-      </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" t="s">
-        <v>160</v>
-      </c>
-      <c r="G75" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K75" s="8"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E76" t="s">
-        <v>159</v>
-      </c>
-      <c r="F76" t="s">
-        <v>160</v>
-      </c>
-      <c r="G76" t="s">
-        <v>85</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" t="s">
-        <v>159</v>
-      </c>
-      <c r="F77" t="s">
-        <v>160</v>
-      </c>
-      <c r="G77" t="s">
-        <v>85</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K77" s="8"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" t="s">
-        <v>159</v>
-      </c>
-      <c r="F78" t="s">
-        <v>160</v>
-      </c>
-      <c r="G78" t="s">
-        <v>85</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K78" s="8"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E79" t="s">
-        <v>159</v>
-      </c>
-      <c r="F79" t="s">
-        <v>160</v>
-      </c>
-      <c r="G79" t="s">
-        <v>85</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K79" s="8"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" t="s">
-        <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
-      </c>
-      <c r="G80" t="s">
-        <v>85</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E81" t="s">
-        <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
-      </c>
-      <c r="G81" t="s">
-        <v>85</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K96" s="8"/>
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.25">

--- a/MapGenerator/Großflächen.xlsx
+++ b/MapGenerator/Großflächen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\maps\MapGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA257C77-9422-47F0-884A-5F80CFBF06B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35760C0-37FC-4342-931C-816D4FAEDB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AFB3E408-383F-438A-91D5-4116BE5462C2}"/>
   </bookViews>
@@ -897,7 +897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,8 +1621,8 @@
   <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A855" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:I891"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,8 +2239,8 @@
   <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MapGenerator/Großflächen.xlsx
+++ b/MapGenerator/Großflächen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\maps\MapGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35760C0-37FC-4342-931C-816D4FAEDB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D0192F-00F6-4B6E-9A09-8C0FA06EA240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AFB3E408-383F-438A-91D5-4116BE5462C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{AFB3E408-383F-438A-91D5-4116BE5462C2}"/>
   </bookViews>
   <sheets>
     <sheet name="genehmigt" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Name (popup text)</t>
   </si>
   <si>
@@ -510,6 +507,9 @@
   </si>
   <si>
     <t>circle</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
   </si>
 </sst>
 </file>
@@ -895,9 +895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E071EC6E-9C56-4871-8208-76264C096F94}">
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="18" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -942,25 +942,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -968,25 +968,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -994,25 +994,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1020,25 +1020,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1046,25 +1046,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1072,25 +1072,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1098,25 +1098,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1124,25 +1124,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,25 +1150,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1620,9 +1620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5DA9EE-A5AF-4E5C-9B3A-B8109609A6EC}">
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1631,7 @@
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="18" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1667,25 +1667,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,25 +1693,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1719,25 +1719,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1745,25 +1745,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1771,25 +1771,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2249,7 @@
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="18" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2268,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -2285,25 +2285,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2311,25 +2311,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2337,25 +2337,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2363,25 +2363,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2389,25 +2389,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2415,25 +2415,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2441,25 +2441,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2467,25 +2467,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2493,25 +2493,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2519,25 +2519,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2545,25 +2545,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2571,25 +2571,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2597,25 +2597,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2623,25 +2623,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,25 +2649,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,25 +2675,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2701,25 +2701,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2727,25 +2727,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2753,25 +2753,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2779,25 +2779,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2805,25 +2805,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2831,25 +2831,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2857,25 +2857,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2883,25 +2883,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2909,25 +2909,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2935,25 +2935,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2961,25 +2961,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2987,25 +2987,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3013,25 +3013,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3039,25 +3039,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3065,25 +3065,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3091,25 +3091,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3117,25 +3117,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3143,25 +3143,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3169,25 +3169,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3195,25 +3195,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3221,25 +3221,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3247,25 +3247,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3273,25 +3273,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3299,25 +3299,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3325,25 +3325,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3351,25 +3351,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3377,25 +3377,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3403,25 +3403,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3429,25 +3429,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3455,25 +3455,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3481,25 +3481,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3507,25 +3507,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3533,25 +3533,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3559,25 +3559,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3585,25 +3585,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3611,25 +3611,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3637,25 +3637,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3663,25 +3663,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3689,25 +3689,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3715,25 +3715,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3741,25 +3741,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3767,25 +3767,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3793,25 +3793,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3819,25 +3819,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3845,25 +3845,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3871,25 +3871,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3897,25 +3897,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3923,25 +3923,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3949,25 +3949,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,25 +3975,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
